--- a/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,8</t>
+          <t>41,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,83</t>
+          <t>40,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,73</t>
+          <t>38,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,43</t>
+          <t>37,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,71</t>
+          <t>40,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,65</t>
+          <t>38,89</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,91; 45,77</t>
+          <t>38,3; 44,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,2; 44,0</t>
+          <t>37,28; 43,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,43; 41,11</t>
+          <t>35,56; 41,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,88; 41,01</t>
+          <t>33,91; 40,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,63; 42,91</t>
+          <t>38,23; 42,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,78; 42,44</t>
+          <t>36,53; 40,92</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,45</t>
+          <t>44,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,43</t>
+          <t>39,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,73</t>
+          <t>38,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,85</t>
+          <t>37,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,99</t>
+          <t>42,11</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,56</t>
+          <t>38,05</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,3; 44,52</t>
+          <t>41,97; 47,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,1; 47,93</t>
+          <t>36,61; 42,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,76; 41,16</t>
+          <t>34,68; 41,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,64; 40,6</t>
+          <t>33,92; 40,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,32; 41,3</t>
+          <t>40,0; 44,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,52; 44,52</t>
+          <t>35,82; 40,51</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,22</t>
+          <t>48,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,72</t>
+          <t>39,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,35</t>
+          <t>45,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,69</t>
+          <t>37,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,52</t>
+          <t>48,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>39,12</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,01; 45,26</t>
+          <t>45,78; 50,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,69; 49,25</t>
+          <t>36,51; 42,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,03; 44,86</t>
+          <t>40,17; 49,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,4; 44,64</t>
+          <t>33,19; 42,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,86; 44,12</t>
+          <t>45,96; 50,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,62; 48,52</t>
+          <t>36,46; 41,92</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,29</t>
+          <t>46,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,52</t>
+          <t>42,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,08</t>
+          <t>39,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,63</t>
+          <t>39,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,12</t>
+          <t>43,87</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,56</t>
+          <t>41,41</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,52; 46,86</t>
+          <t>43,41; 48,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,66; 49,34</t>
+          <t>40,48; 44,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,41; 43,99</t>
+          <t>36,12; 42,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,16; 40,25</t>
+          <t>36,55; 42,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,37; 44,93</t>
+          <t>41,93; 46,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,87; 46,14</t>
+          <t>39,84; 43,3</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,27</t>
+          <t>44,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,78</t>
+          <t>39,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,78</t>
+          <t>40,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,76</t>
+          <t>43,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,39</t>
+          <t>42,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,1</t>
+          <t>40,28</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 43,25</t>
+          <t>39,39; 49,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,44; 49,37</t>
+          <t>35,77; 42,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,45; 50,16</t>
+          <t>35,9; 44,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,92; 43,43</t>
+          <t>38,07; 49,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,65; 44,23</t>
+          <t>38,79; 45,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,89; 46,06</t>
+          <t>37,57; 43,02</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>31,03</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>35,87</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,15</t>
+          <t>41,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,51</t>
+          <t>36,77</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,15</t>
+          <t>39,7</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,66</t>
+          <t>36,77</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>23,88; 42,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>26,49; 44,55</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>34,11; 47,4</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>33,0; 43,0</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>35,0; 45,53</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>33,8; 45,09</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>33,0; 43,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>35,22; 44,66</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,53</t>
+          <t>46,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>40,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,45</t>
+          <t>39,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,15</t>
+          <t>38,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,37</t>
+          <t>44,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>43,61</t>
+          <t>39,71</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>41,2; 43,88</t>
+          <t>43,68; 48,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,94; 47,03</t>
+          <t>39,31; 41,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,05; 41,23</t>
+          <t>37,93; 41,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,79; 40,27</t>
+          <t>36,92; 40,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,33; 42,37</t>
+          <t>42,18; 46,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,73; 44,69</t>
+          <t>38,73; 40,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que dejaron de fumar tabaco en años</t>
+          <t>Edad media en la que dejaron de fumar tabaco en años (tasa de respuesta: 97,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,3; 44,08</t>
+          <t>37,82; 43,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,56; 41,65</t>
+          <t>35,36; 41,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 42,52</t>
+          <t>37,85; 42,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,97; 47,42</t>
+          <t>41,85; 47,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,68; 41,72</t>
+          <t>34,39; 42,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 44,26</t>
+          <t>39,99; 44,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,78; 50,85</t>
+          <t>45,73; 51,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,17; 49,72</t>
+          <t>40,24; 49,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,96; 50,47</t>
+          <t>45,64; 49,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,41; 48,75</t>
+          <t>43,6; 48,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,12; 42,63</t>
+          <t>35,81; 42,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,93; 46,02</t>
+          <t>41,77; 45,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,39; 49,5</t>
+          <t>40,11; 49,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 44,41</t>
+          <t>35,6; 44,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,79; 45,48</t>
+          <t>38,99; 45,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,88; 42,84</t>
+          <t>23,55; 43,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,11; 47,4</t>
+          <t>34,24; 47,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,8; 45,09</t>
+          <t>33,32; 44,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,68; 48,07</t>
+          <t>43,76; 48,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,93; 41,35</t>
+          <t>37,83; 41,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,18; 46,9</t>
+          <t>42,18; 47,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FIN_TABACO-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,31</t>
+          <t>41,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,59</t>
+          <t>38,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,4</t>
+          <t>40,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,82; 43,88</t>
+          <t>38,16; 43,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 41,63</t>
+          <t>35,32; 41,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,85; 42,4</t>
+          <t>38,07; 42,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,45</t>
+          <t>44,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,2</t>
+          <t>37,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,11</t>
+          <t>41,79</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,85; 47,39</t>
+          <t>41,51; 46,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 42,04</t>
+          <t>34,32; 42,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,99; 44,53</t>
+          <t>39,78; 44,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,63</t>
+          <t>47,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,09</t>
+          <t>45,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,51</t>
+          <t>46,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,73; 51,19</t>
+          <t>44,0; 50,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,24; 49,95</t>
+          <t>40,43; 50,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,64; 49,59</t>
+          <t>44,02; 49,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>45,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,33</t>
+          <t>38,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,87</t>
+          <t>43,44</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,6; 48,63</t>
+          <t>42,79; 48,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,81; 42,42</t>
+          <t>35,4; 42,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,77; 45,85</t>
+          <t>41,27; 45,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,7</t>
+          <t>44,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,29</t>
+          <t>40,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,3</t>
+          <t>42,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,11; 49,9</t>
+          <t>40,3; 49,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,6; 44,27</t>
+          <t>36,16; 44,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,99; 45,32</t>
+          <t>39,19; 45,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,03</t>
+          <t>31,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41,55</t>
+          <t>43,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,7</t>
+          <t>41,58</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 43,31</t>
+          <t>24,05; 43,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,24; 47,31</t>
+          <t>36,77; 48,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,32; 44,78</t>
+          <t>35,6; 45,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,19</t>
+          <t>44,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,69</t>
+          <t>39,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,5</t>
+          <t>42,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,76; 48,06</t>
+          <t>42,69; 45,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,83; 41,27</t>
+          <t>38,13; 41,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,18; 47,25</t>
+          <t>41,45; 43,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
